--- a/eSams/ServerInfo.xlsx
+++ b/eSams/ServerInfo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
   <si>
     <t>STT</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>10.12.1.159</t>
-  </si>
-  <si>
-    <t>https://10.12.1.159/svn/Website/trunk/Website/dichvucong/egov.hanoi.gov.vn/TaiChinh/EG_ProductDeclaration</t>
   </si>
   <si>
     <t>10.12.1.156</t>
@@ -221,11 +218,6 @@
 SAMS_nhanbangiao/zU4PkVrV73MY4rXP</t>
   </si>
   <si>
-    <t xml:space="preserve">https://10.12.1.157/svn/SAMS/trunk/Webservices
-https://10.12.1.157/svn/SAMS/trunk/BO
-</t>
-  </si>
-  <si>
     <t>User/pass: administrator/123456</t>
   </si>
   <si>
@@ -234,6 +226,184 @@
   <si>
     <t>SAMSFamilyRegisterServices
 SAMSTransactionServices</t>
+  </si>
+  <si>
+    <t>https://10.12.1.159/svn/Website/trunk/Website/dichvucong/egov.hanoi.gov.vn
+https://10.12.1.154/svn/EGOVSAMS/trunk/UI
+https://10.12.1.154/svn/EGOVSAMS/trunk/Webservices
+https://10.12.1.154/svn/EGOVSAMS/trunk/BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý đối với web lưu trú: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add host </t>
+  </si>
+  <si>
+    <t>#SAMS</t>
+  </si>
+  <si>
+    <t>10.12.1.164 ssoservice.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 samsmasterdataservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 erptransactionservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 erpreportservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 erpsmsservices.nc.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 samsfmsservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 samsreportservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 samsoeservice.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 samsfamilyregisterservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 samsoperationservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 samstransactionservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 samsegovermentservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 samscitizencacheservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 sameofficewebservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 samspassportregisterservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 samsresidebookcacheservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>10.12.1.164 samsresidebookservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>user/pass đăng nhập web lưu trú bản test: dangluyen/123456</t>
+  </si>
+  <si>
+    <t>127.0.0.1 luutru.hnpolice.com</t>
+  </si>
+  <si>
+    <t>"Đồng bộ thông tin công dân: https://10.12.1.159/svn/Website/trunk/Solr/winservices/SolrServiceCitiZenV2
+ Đồng bộ thông tin lưu trú:  https://10.12.1.159/svn/Website/trunk/Solr/winservices/SolrServiceSysncResideBook"</t>
+  </si>
+  <si>
+    <t>Các vấn đề thường hỗ trợ:</t>
+  </si>
+  <si>
+    <t>2. Tiền tố Table: PS_, FI_</t>
+  </si>
+  <si>
+    <t>3. Webservice:</t>
+  </si>
+  <si>
+    <t>Web kê khai giá</t>
+  </si>
+  <si>
+    <t>samspublicserviceservices.egovsams.com</t>
+  </si>
+  <si>
+    <t>Server xử lý nghiệp vụ</t>
+  </si>
+  <si>
+    <t>servicessignin.nc.com</t>
+  </si>
+  <si>
+    <t>Service đăng nhập web</t>
+  </si>
+  <si>
+    <t>samsmasterdatapsservices.egovsams.com</t>
+  </si>
+  <si>
+    <t>Service danh mục</t>
+  </si>
+  <si>
+    <t>1. Tiền tố Table: MED_ (Table chính: MED_HEALTHRECORD)</t>
+  </si>
+  <si>
+    <t>2. Webservice</t>
+  </si>
+  <si>
+    <t>Xử lý nghiệp vụ chính</t>
+  </si>
+  <si>
+    <t>1. Update Nơi xét nghiệm (TESTINGORGANID)</t>
+  </si>
+  <si>
+    <t>3. Tiền tố Table: MED_ (Table chính: MED_TESTINGREQUEST)</t>
+  </si>
+  <si>
+    <t>4. Webservice</t>
+  </si>
+  <si>
+    <t>1. Query dữ liệu báo cáo</t>
+  </si>
+  <si>
+    <t>2. Các winservice đồng bộ Solr, Redis thỉnh thoảng stop =&gt; vào server restart &amp; xem log</t>
+  </si>
+  <si>
+    <t>3. Webservice</t>
+  </si>
+  <si>
+    <t>samscitizencacheservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu công dân từ cache</t>
+  </si>
+  <si>
+    <t>samsegovermentservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>Đăng nhập web lưu trú</t>
+  </si>
+  <si>
+    <t>samsresidebookcacheservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu lưu trú từ cache</t>
+  </si>
+  <si>
+    <t>samsresidebookservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>Xử lý nghiệp vụ lưu trú</t>
+  </si>
+  <si>
+    <t>samstransactionservices.hnpolice.com</t>
+  </si>
+  <si>
+    <t>Xử lý nghiệp vụ trên App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://10.12.1.157/svn/SAMS/trunk/Webservices
+https://10.12.1.157/svn/SAMS/trunk/BO
+https://10.12.1.159/svn/Website/trunk/Website/cahn/luutru</t>
+  </si>
+  <si>
+    <t>Product: 2 winservice này chạy trên 2 server 114 &amp; 115</t>
+  </si>
+  <si>
+    <t>1. Server chứa file đầy dung lượng (các server 32, 33, 36) =&gt; Nhờ ANM hỗ trợ check dung lượng (Issue: không lưu được tập tin đính kèm)</t>
+  </si>
+  <si>
+    <t>3. Tiền tố Table: MED_ (Table chính: MED_TESTINGREQUEST, lần xét nghiệm: MED_TESTINGHISTORY, Kết quả xét nghiệm: MED_TESTTIMEPARAMDETAIL, cột TESTPARAMVALUE)</t>
   </si>
 </sst>
 </file>
@@ -304,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,6 +519,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -356,6 +532,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -373,6 +557,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12172950" y="942975"/>
+          <a:ext cx="9582150" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -630,7 +866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,15 +874,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" style="3" customWidth="1"/>
@@ -669,149 +905,218 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="6">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="12" customFormat="1">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60">
-      <c r="A7" s="18"/>
-      <c r="B7" s="17"/>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="12" customFormat="1">
-      <c r="A8" s="12">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="10" spans="1:6" s="14" customFormat="1">
-      <c r="A10" s="14" t="s">
-        <v>44</v>
+      <c r="A10" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="30">
       <c r="B12" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45">
       <c r="B14" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45">
+      <c r="B17" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="45">
-      <c r="B17" s="10" t="s">
-        <v>52</v>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30">
+      <c r="B24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30">
+      <c r="B26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://10.12.1.159/svn/Website/trunk/Website/dichvucong/egov.hanoi.gov.vn/TaiChinh/EG_ProductDeclaration"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -820,14 +1125,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="23"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="61" style="3" customWidth="1"/>
@@ -849,98 +1155,98 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="6">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6"/>
+      <c r="A3" s="17"/>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60">
-      <c r="A7" s="18">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>11</v>
+      <c r="B7" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -948,31 +1254,61 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="30">
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -990,14 +1326,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="23"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="75.28515625" style="3" customWidth="1"/>
@@ -1019,100 +1356,143 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="6">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6"/>
+      <c r="A3" s="17"/>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60">
-      <c r="A7" s="18">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>11</v>
+      <c r="B7" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60">
+      <c r="A8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
+    <row r="10" spans="1:5">
+      <c r="A10" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:A8"/>
+  <mergeCells count="1">
     <mergeCell ref="B7:B8"/>
   </mergeCells>
   <hyperlinks>
@@ -1125,16 +1505,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61" style="3" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
   </cols>
@@ -1153,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
@@ -1161,28 +1541,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6"/>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1190,64 +1570,274 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="14" t="s">
-        <v>62</v>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2" display="https://10.12.1.157/svn/SAMS/trunk/Webservices"/>
+    <hyperlink ref="D6" r:id="rId1" display="https://10.12.1.157/svn/SAMS/trunk/Webservices"/>
+    <hyperlink ref="D4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>